--- a/Excel/how tables could look.xlsx
+++ b/Excel/how tables could look.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Uni\FINAL_Year\Dissertation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Uni\FINAL_Year\Dissertation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF686231-DBC2-4385-BF2B-190A157AB761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED44E6-761E-4818-829D-7C3AFC6D1E55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A522EAAA-04A2-4FA9-A435-DE8F63DB9FA3}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>track 1 + 240hz</t>
   </si>
   <si>
-    <t>recorded  to recorded</t>
-  </si>
-  <si>
     <t>track 2 + 240hz</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>corr to recorded</t>
+  </si>
+  <si>
+    <t>recorded to recorded</t>
   </si>
 </sst>
 </file>
@@ -164,13 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,6 +179,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,16 +503,13 @@
   <dimension ref="F4:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -516,10 +517,14 @@
     <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="1"/>
@@ -539,28 +544,27 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -585,18 +589,18 @@
       </c>
     </row>
     <row r="6" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="6"/>
-      <c r="U6" s="2" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="U6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -607,14 +611,14 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="M7" s="2" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -622,9 +626,9 @@
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="1" t="s">
         <v>4</v>
       </c>
@@ -633,22 +637,22 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-      <c r="M8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="1"/>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -659,14 +663,14 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -674,9 +678,9 @@
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,13 +689,13 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="M10" s="2"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="6:26" x14ac:dyDescent="0.25">
@@ -699,72 +703,69 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -775,30 +776,30 @@
       </c>
     </row>
     <row r="16" spans="6:26" x14ac:dyDescent="0.25">
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
       <c r="N16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="M17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -806,21 +807,21 @@
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="M18" s="2"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -828,69 +829,68 @@
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="6"/>
       <c r="N20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q20" s="6"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
